--- a/greenplum/datawarehouse/QA/truven/dw_staging/outputs/07-truven-pharmacy-claims-counting.xlsx
+++ b/greenplum/datawarehouse/QA/truven/dw_staging/outputs/07-truven-pharmacy-claims-counting.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Count of distinct enrolid || ndcnum || svcdate in data_warehouse and Truven schema on TACC server</t>
   </si>
   <si>
-    <t xml:space="preserve">Run time: 2023-01-17 09:25:50</t>
+    <t xml:space="preserve">Run time: 2023-05-16 09:36:48</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">mdcrd_pct</t>
   </si>
   <si>
-    <t xml:space="preserve">362850590</t>
+    <t xml:space="preserve">362850609</t>
   </si>
   <si>
     <t xml:space="preserve">98365540</t>
   </si>
   <si>
-    <t xml:space="preserve">26623</t>
+    <t xml:space="preserve">26604</t>
   </si>
   <si>
     <t xml:space="preserve">5553</t>
@@ -95,25 +95,25 @@
     <t xml:space="preserve">822</t>
   </si>
   <si>
-    <t xml:space="preserve">229562380</t>
+    <t xml:space="preserve">229562382</t>
   </si>
   <si>
     <t xml:space="preserve">56680005</t>
   </si>
   <si>
-    <t xml:space="preserve">2865</t>
+    <t xml:space="preserve">2863</t>
   </si>
   <si>
     <t xml:space="preserve">1257</t>
   </si>
   <si>
-    <t xml:space="preserve">234819252</t>
+    <t xml:space="preserve">234819254</t>
   </si>
   <si>
     <t xml:space="preserve">55715314</t>
   </si>
   <si>
-    <t xml:space="preserve">6340</t>
+    <t xml:space="preserve">6338</t>
   </si>
   <si>
     <t xml:space="preserve">1143</t>
@@ -131,52 +131,64 @@
     <t xml:space="preserve">141</t>
   </si>
   <si>
-    <t xml:space="preserve">209603282</t>
+    <t xml:space="preserve">209603316</t>
   </si>
   <si>
     <t xml:space="preserve">29537028</t>
   </si>
   <si>
-    <t xml:space="preserve">2064</t>
+    <t xml:space="preserve">2030</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
   </si>
   <si>
-    <t xml:space="preserve">189839628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25335150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175060740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33544464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169765298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33684370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223</t>
+    <t xml:space="preserve">194922648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176883698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43155515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178634805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34030793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79774356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16754449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0000733664144405783</v>
+        <v>0.0000733140551319214</v>
       </c>
       <c r="I5" t="n">
         <v>0.0000564495100201845</v>
@@ -698,7 +710,7 @@
         <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0000124801121354411</v>
+        <v>0.0000124714000152767</v>
       </c>
       <c r="I9" t="n">
         <v>0.0000221766410211544</v>
@@ -727,7 +739,7 @@
         <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0000269987608505635</v>
+        <v>0.0000269902438913047</v>
       </c>
       <c r="I10" t="n">
         <v>0.0000205145851251812</v>
@@ -785,7 +797,7 @@
         <v>42</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00000984707708743268</v>
+        <v>0.00000968486748424823</v>
       </c>
       <c r="I12" t="n">
         <v>0.00000338556951102355</v>
@@ -802,10 +814,10 @@
         <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>189840924</v>
+        <v>194924194</v>
       </c>
       <c r="E13" t="n">
-        <v>25335171</v>
+        <v>42628776</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -814,10 +826,10 @@
         <v>46</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00000682676828943374</v>
+        <v>0.0000079312884064048</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00000082888724137682</v>
+        <v>0.00000696712474221638</v>
       </c>
     </row>
     <row r="14">
@@ -831,10 +843,10 @@
         <v>48</v>
       </c>
       <c r="D14" t="n">
-        <v>175061759</v>
+        <v>176884613</v>
       </c>
       <c r="E14" t="n">
-        <v>33544584</v>
+        <v>43155669</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
@@ -843,10 +855,10 @@
         <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00000582080293160998</v>
+        <v>0.00000517286373575072</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00000357732860839771</v>
+        <v>0.00000356847671623397</v>
       </c>
     </row>
     <row r="15">
@@ -860,10 +872,10 @@
         <v>52</v>
       </c>
       <c r="D15" t="n">
-        <v>169771182</v>
+        <v>178636852</v>
       </c>
       <c r="E15" t="n">
-        <v>33684593</v>
+        <v>34030942</v>
       </c>
       <c r="F15" t="s">
         <v>53</v>
@@ -872,10 +884,39 @@
         <v>54</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0000346584145240857</v>
+        <v>0.0000114590017517774</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00000662023732927395</v>
+        <v>0.00000437836836841014</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="n">
+        <v>79778481</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16754551</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0000517056723604452</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0000060878981477928</v>
       </c>
     </row>
   </sheetData>
